--- a/data/trans_camb/IP1012-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP1012-Estudios-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -795,7 +795,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,2</t>
+          <t>0,0; 6,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -805,22 +805,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 0,0</t>
+          <t>-4,25; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 0,0</t>
+          <t>-3,53; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 3,07</t>
+          <t>-0,51; 2,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 0,0</t>
+          <t>-2,03; 0,0</t>
         </is>
       </c>
     </row>
@@ -951,17 +951,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 0,67</t>
+          <t>-1,1; 0,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,8; -0,06</t>
+          <t>-1,7; -0,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,57</t>
+          <t>0,15; 1,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -971,12 +971,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 0,69</t>
+          <t>-0,39; 0,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,87; -0,07</t>
+          <t>-0,93; -0,06</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-87,88; 265,65</t>
+          <t>-85,58; 318,97</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1047,12 +1047,12 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-65,48; 378,43</t>
+          <t>-65,43; 450,46</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 63,21</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 1,07</t>
+          <t>-2,52; 1,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 1,57</t>
+          <t>-2,17; 1,55</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 1,42</t>
+          <t>-1,58; 1,58</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 0,0</t>
+          <t>-2,46; 0,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 0,79</t>
+          <t>-1,59; 0,81</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 0,71</t>
+          <t>-1,45; 0,61</t>
         </is>
       </c>
     </row>
@@ -1203,12 +1203,12 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 351,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 470,87</t>
+          <t>-100,0; 261,4</t>
         </is>
       </c>
     </row>
@@ -1263,17 +1263,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 0,86</t>
+          <t>-0,72; 0,83</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 0,19</t>
+          <t>-1,13; 0,23</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 0,79</t>
+          <t>-0,34; 0,76</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1283,12 +1283,12 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 0,55</t>
+          <t>-0,37; 0,6</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,76; -0,01</t>
+          <t>-0,78; -0,04</t>
         </is>
       </c>
     </row>
@@ -1339,12 +1339,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-71,51; 231,1</t>
+          <t>-67,53; 205,92</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-90,6; 63,59</t>
+          <t>-89,4; 90,92</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1359,12 +1359,12 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-49,67; 188,86</t>
+          <t>-48,3; 199,63</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-92,21; 9,7</t>
+          <t>-91,71; 23,89</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP1012-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP1012-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-0,71</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-0,71</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2,17</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,36</t>
         </is>
       </c>
     </row>
@@ -639,17 +639,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,54; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,21; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 7,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,12 +659,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,39; 3,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,8; 0,0</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>187,65%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,7 +757,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,17</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -767,22 +767,22 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>-0,35</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,61</t>
+          <t>0,15; 1,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 0,0</t>
+          <t>-1,13; 0,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 0,0</t>
+          <t>-1,67; -0,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 2,9</t>
+          <t>-0,4; 0,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 0,0</t>
+          <t>-0,86; -0,05</t>
         </is>
       </c>
     </row>
@@ -838,27 +838,27 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-22,75%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-83,8%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>187,65%</t>
+          <t>34,6%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-84,58%</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,2; 242,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,32; 394,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>-0,42</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 0,7</t>
+          <t>-1,71; 1,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,7; -0,06</t>
+          <t>-2,48; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,45</t>
+          <t>-2,54; 1,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,0</t>
+          <t>-2,12; 1,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 0,72</t>
+          <t>-1,49; 0,81</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,93; -0,06</t>
+          <t>-1,65; 0,6</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-22,75%</t>
+          <t>-28,72%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-83,8%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-40,37%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-9,14%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>34,6%</t>
+          <t>-34,99%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-84,58%</t>
+          <t>-41,4%</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-85,58; 318,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-65,43; 450,46</t>
+          <t>-100,0; 305,25</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,42</t>
+          <t>-0,36</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 1,08</t>
+          <t>-0,27; 0,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 1,55</t>
+          <t>-0,81; -0,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 1,58</t>
+          <t>-0,73; 0,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 0,0</t>
+          <t>-1,15; 0,17</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 0,81</t>
+          <t>-0,39; 0,63</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 0,61</t>
+          <t>-0,76; -0,03</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-40,37%</t>
+          <t>55,52%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-9,14%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-28,72%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-53,39%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-34,99%</t>
+          <t>16,66%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-41,4%</t>
+          <t>-65,6%</t>
         </is>
       </c>
     </row>
@@ -1193,197 +1193,40 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,84; 226,46</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,49; 87,44</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,15; 173,34</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 261,4</t>
+          <t>-91,63; 24,11</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>0,02</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-0,42</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>0,16</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-0,29</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>0,09</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>-0,36</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-0,72; 0,83</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-1,13; 0,23</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-0,34; 0,76</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-0,8; -0,09</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-0,37; 0,6</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-0,78; -0,04</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>2,99%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-53,34%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>55,52%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>16,67%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>-65,58%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-67,53; 205,92</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-89,4; 90,92</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>-48,3; 199,63</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-91,71; 23,89</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
